--- a/BTK_Uyglamalarla_SQL_Ogrenmek/SALES TABLOSU ALAN LISTESI.xlsx
+++ b/BTK_Uyglamalarla_SQL_Ogrenmek/SALES TABLOSU ALAN LISTESI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Veri_Taban_ve_Yontem_Sistemleri\BTK_Uyglamalarla_SQL_Ogrenmek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192950CA-2799-468D-AC21-4169EA3DB8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -199,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,25 +523,28 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:D23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="ALAN ADI" dataDxfId="2"/>
-    <tableColumn id="2" name="AÇIKLAMA" dataDxfId="1"/>
-    <tableColumn id="3" name="ÖRNEK DEĞER" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ALAN ADI" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AÇIKLAMA" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ÖRNEK DEĞER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -574,7 +582,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -646,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,28 +827,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
@@ -851,7 +859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,7 +881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -884,7 +892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,7 +903,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,7 +914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,7 +925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,7 +958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,7 +969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>1670998</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>27501</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1095,24 +1103,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
